--- a/Data/EC/NIT-9015464037.xlsx
+++ b/Data/EC/NIT-9015464037.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFDBB3CD-DB90-4797-9FC7-C29CB7CC0760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79CD19EB-DA3C-45D8-A558-0A92AFA838C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D201DA5-F8ED-4852-A750-9CBADB6C5210}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B43E4751-B91F-46FF-8185-21ADF78AA95E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,130 +65,130 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73101255</t>
+  </si>
+  <si>
+    <t>DAGOBERTO RODRIGUEZ HIDALGO</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>1050963306</t>
+  </si>
+  <si>
+    <t>YOHENDRYS RAMOS RUIZ</t>
+  </si>
+  <si>
+    <t>1049452952</t>
+  </si>
+  <si>
+    <t>JUAN DAVID BENVIDES ORTEGA</t>
+  </si>
+  <si>
+    <t>3928648</t>
+  </si>
+  <si>
+    <t>ROBINSON PEREZ PADILLA</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>73210938</t>
+  </si>
+  <si>
+    <t>ALVARO JAVIER GONZALEZ ARCIRIA</t>
+  </si>
+  <si>
+    <t>14967937</t>
+  </si>
+  <si>
+    <t>OSCAR EVELIO LOAIZA NOGUERA</t>
+  </si>
+  <si>
+    <t>1050955861</t>
+  </si>
+  <si>
+    <t>CARLOS JULIO PAJARO RAMOS</t>
+  </si>
+  <si>
+    <t>1049452060</t>
+  </si>
+  <si>
+    <t>DEIBIS DE JESUS ORTEGA CARMONA</t>
+  </si>
+  <si>
+    <t>1049452446</t>
+  </si>
+  <si>
+    <t>JESUS DAVID ESCOBAR VERGARA</t>
+  </si>
+  <si>
+    <t>3829638</t>
+  </si>
+  <si>
+    <t>DEIVIS JOSE VILLADIEGO DIMAS</t>
+  </si>
+  <si>
+    <t>3928682</t>
+  </si>
+  <si>
+    <t>OMAR ENRIQUE VILLADIEGO DIMAS</t>
+  </si>
+  <si>
+    <t>73556586</t>
+  </si>
+  <si>
+    <t>BARTOLO RUIZ ACEVEDO</t>
+  </si>
+  <si>
+    <t>1002276138</t>
+  </si>
+  <si>
+    <t>EDER MANUEL VISBAL VASQUEZ</t>
+  </si>
+  <si>
+    <t>73558744</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL SIMANCAS SEMPRUN</t>
+  </si>
+  <si>
+    <t>7938370</t>
+  </si>
+  <si>
+    <t>ONIS MARQUEZ OROZCO</t>
+  </si>
+  <si>
     <t>1050947253</t>
   </si>
   <si>
     <t>JESUS DAVID LORDUY DE AVILA</t>
   </si>
   <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>1002276138</t>
-  </si>
-  <si>
-    <t>EDER MANUEL VISBAL VASQUEZ</t>
-  </si>
-  <si>
-    <t>3928648</t>
-  </si>
-  <si>
-    <t>ROBINSON PEREZ PADILLA</t>
-  </si>
-  <si>
-    <t>73210938</t>
-  </si>
-  <si>
-    <t>ALVARO JAVIER GONZALEZ ARCIRIA</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>3829638</t>
-  </si>
-  <si>
-    <t>DEIVIS JOSE VILLADIEGO DIMAS</t>
-  </si>
-  <si>
-    <t>73556586</t>
-  </si>
-  <si>
-    <t>BARTOLO RUIZ ACEVEDO</t>
-  </si>
-  <si>
     <t>1035922251</t>
   </si>
   <si>
     <t>DAIRO JOSE PUELLO MARTINEZ</t>
-  </si>
-  <si>
-    <t>1049452060</t>
-  </si>
-  <si>
-    <t>DEIBIS DE JESUS ORTEGA CARMONA</t>
-  </si>
-  <si>
-    <t>73101255</t>
-  </si>
-  <si>
-    <t>DAGOBERTO RODRIGUEZ HIDALGO</t>
-  </si>
-  <si>
-    <t>1049452952</t>
-  </si>
-  <si>
-    <t>JUAN DAVID BENVIDES ORTEGA</t>
-  </si>
-  <si>
-    <t>1050955861</t>
-  </si>
-  <si>
-    <t>CARLOS JULIO PAJARO RAMOS</t>
-  </si>
-  <si>
-    <t>1050963306</t>
-  </si>
-  <si>
-    <t>YOHENDRYS RAMOS RUIZ</t>
-  </si>
-  <si>
-    <t>73558744</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL SIMANCAS SEMPRUN</t>
-  </si>
-  <si>
-    <t>1049452446</t>
-  </si>
-  <si>
-    <t>JESUS DAVID ESCOBAR VERGARA</t>
-  </si>
-  <si>
-    <t>7938370</t>
-  </si>
-  <si>
-    <t>ONIS MARQUEZ OROZCO</t>
-  </si>
-  <si>
-    <t>14967937</t>
-  </si>
-  <si>
-    <t>OSCAR EVELIO LOAIZA NOGUERA</t>
-  </si>
-  <si>
-    <t>3928682</t>
-  </si>
-  <si>
-    <t>OMAR ENRIQUE VILLADIEGO DIMAS</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -602,7 +602,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E2057C-1E8A-CBDC-9665-E7EDD84F3D55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C18592A-CBCF-4493-A1A1-6A13DA09EF93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -953,7 +953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE25DCD-BFA7-4DF3-8540-9558B4E9109B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14482CE7-5B42-4F3A-B2F5-1E291B427810}">
   <dimension ref="B2:J136"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1131,7 +1131,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G16" s="18">
         <v>1160000</v>
@@ -1145,13 +1145,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>46400</v>
@@ -1168,13 +1168,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>46400</v>
@@ -1191,13 +1191,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1214,13 +1214,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1237,13 +1237,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1260,13 +1260,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
@@ -1283,16 +1283,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G23" s="18">
         <v>1160000</v>
@@ -1306,13 +1306,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
@@ -1329,13 +1329,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1352,13 +1352,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1375,13 +1375,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1398,13 +1398,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1421,13 +1421,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1444,16 +1444,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G30" s="18">
         <v>1160000</v>
@@ -1467,13 +1467,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1490,13 +1490,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1513,19 +1513,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
       </c>
       <c r="G33" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1536,13 +1536,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1559,13 +1559,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1582,13 +1582,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1605,16 +1605,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F37" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G37" s="18">
         <v>1160000</v>
@@ -1628,13 +1628,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1651,13 +1651,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1674,13 +1674,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1697,13 +1697,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1720,13 +1720,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F42" s="18">
         <v>46400</v>
@@ -1743,13 +1743,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
@@ -1766,13 +1766,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
         <v>46400</v>
@@ -1789,19 +1789,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F45" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G45" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1812,13 +1812,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F46" s="18">
         <v>46400</v>
@@ -1835,13 +1835,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F47" s="18">
         <v>46400</v>
@@ -1858,13 +1858,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F48" s="18">
         <v>46400</v>
@@ -1881,13 +1881,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
@@ -1904,13 +1904,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
@@ -1927,13 +1927,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
@@ -1950,16 +1950,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F52" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G52" s="18">
         <v>1160000</v>
@@ -1973,13 +1973,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
@@ -1996,13 +1996,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
@@ -2019,13 +2019,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -2042,13 +2042,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F56" s="18">
         <v>46400</v>
@@ -2071,7 +2071,7 @@
         <v>28</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
@@ -2088,13 +2088,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F58" s="18">
         <v>46400</v>
@@ -2111,19 +2111,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F59" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G59" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2134,13 +2134,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="F60" s="18">
         <v>46400</v>
@@ -2157,13 +2157,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F61" s="18">
         <v>46400</v>
@@ -2180,13 +2180,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F62" s="18">
         <v>46400</v>
@@ -2203,13 +2203,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F63" s="18">
         <v>46400</v>
@@ -2226,13 +2226,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F64" s="18">
         <v>46400</v>
@@ -2249,13 +2249,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F65" s="18">
         <v>46400</v>
@@ -2272,16 +2272,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F66" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G66" s="18">
         <v>1160000</v>
@@ -2295,13 +2295,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F67" s="18">
         <v>46400</v>
@@ -2318,13 +2318,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F68" s="18">
         <v>46400</v>
@@ -2347,7 +2347,7 @@
         <v>32</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F69" s="18">
         <v>46400</v>
@@ -2364,13 +2364,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F70" s="18">
         <v>46400</v>
@@ -2387,13 +2387,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F71" s="18">
         <v>46400</v>
@@ -2410,13 +2410,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F72" s="18">
         <v>46400</v>
@@ -2439,10 +2439,10 @@
         <v>34</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F73" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G73" s="18">
         <v>1160000</v>
@@ -2456,13 +2456,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F74" s="18">
         <v>46400</v>
@@ -2479,13 +2479,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F75" s="18">
         <v>46400</v>
@@ -2502,13 +2502,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F76" s="18">
         <v>46400</v>
@@ -2525,13 +2525,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F77" s="18">
         <v>46400</v>
@@ -2548,13 +2548,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F78" s="18">
         <v>46400</v>
@@ -2571,13 +2571,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F79" s="18">
         <v>46400</v>
@@ -2594,16 +2594,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F80" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G80" s="18">
         <v>1160000</v>
@@ -2617,13 +2617,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F81" s="18">
         <v>46400</v>
@@ -2640,19 +2640,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F82" s="18">
         <v>46400</v>
       </c>
       <c r="G82" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2663,13 +2663,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="F83" s="18">
         <v>46400</v>
@@ -2686,13 +2686,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F84" s="18">
         <v>46400</v>
@@ -2709,13 +2709,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F85" s="18">
         <v>46400</v>
@@ -2732,13 +2732,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F86" s="18">
         <v>46400</v>
@@ -2755,16 +2755,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F87" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G87" s="18">
         <v>1160000</v>
@@ -2778,13 +2778,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F88" s="18">
         <v>46400</v>
@@ -2801,13 +2801,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D89" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="F89" s="18">
         <v>46400</v>
@@ -2824,13 +2824,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="F90" s="18">
         <v>46400</v>
@@ -2847,13 +2847,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D91" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="F91" s="18">
         <v>46400</v>
@@ -2870,13 +2870,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F92" s="18">
         <v>46400</v>
@@ -2893,13 +2893,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F93" s="18">
         <v>46400</v>
@@ -2916,16 +2916,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F94" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G94" s="18">
         <v>1160000</v>
@@ -2939,13 +2939,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F95" s="18">
         <v>46400</v>
@@ -2962,13 +2962,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F96" s="18">
         <v>46400</v>
@@ -2985,19 +2985,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="F97" s="18">
         <v>46400</v>
       </c>
       <c r="G97" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3008,13 +3008,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F98" s="18">
         <v>46400</v>
@@ -3031,13 +3031,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F99" s="18">
         <v>46400</v>
@@ -3054,13 +3054,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F100" s="18">
         <v>46400</v>
@@ -3077,16 +3077,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F101" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G101" s="18">
         <v>1160000</v>
@@ -3100,13 +3100,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F102" s="18">
         <v>46400</v>
@@ -3123,13 +3123,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F103" s="18">
         <v>46400</v>
@@ -3146,13 +3146,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F104" s="18">
         <v>46400</v>
@@ -3169,13 +3169,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F105" s="18">
         <v>46400</v>
@@ -3192,13 +3192,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F106" s="18">
         <v>46400</v>
@@ -3215,13 +3215,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F107" s="18">
         <v>46400</v>
@@ -3244,13 +3244,13 @@
         <v>42</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F108" s="18">
         <v>46400</v>
       </c>
       <c r="G108" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3261,16 +3261,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F109" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G109" s="18">
         <v>1160000</v>
@@ -3284,13 +3284,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F110" s="18">
         <v>46400</v>
@@ -3307,13 +3307,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F111" s="18">
         <v>46400</v>
@@ -3330,13 +3330,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F112" s="18">
         <v>46400</v>
@@ -3353,13 +3353,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F113" s="18">
         <v>46400</v>
@@ -3376,13 +3376,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F114" s="18">
         <v>46400</v>
@@ -3399,16 +3399,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D115" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E115" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E115" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="F115" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G115" s="18">
         <v>1160000</v>
@@ -3422,13 +3422,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F116" s="18">
         <v>43307</v>
@@ -3445,16 +3445,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F117" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G117" s="18">
         <v>1160000</v>
@@ -3468,16 +3468,16 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F118" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G118" s="18">
         <v>1160000</v>
@@ -3491,16 +3491,16 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F119" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G119" s="18">
         <v>1160000</v>
@@ -3514,16 +3514,16 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D120" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E120" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E120" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="F120" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G120" s="18">
         <v>1160000</v>
@@ -3537,16 +3537,16 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F121" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G121" s="18">
         <v>1160000</v>
@@ -3560,16 +3560,16 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F122" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G122" s="18">
         <v>1160000</v>
@@ -3583,19 +3583,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F123" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G123" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3606,13 +3606,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F124" s="18">
         <v>43307</v>
@@ -3629,16 +3629,16 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F125" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G125" s="18">
         <v>1160000</v>
@@ -3652,16 +3652,16 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F126" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G126" s="18">
         <v>1160000</v>
@@ -3675,16 +3675,16 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F127" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G127" s="18">
         <v>1160000</v>
@@ -3698,16 +3698,16 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F128" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G128" s="18">
         <v>1160000</v>
@@ -3721,19 +3721,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F129" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G129" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3744,16 +3744,16 @@
         <v>8</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E130" s="22" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F130" s="24">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G130" s="24">
         <v>1160000</v>

--- a/Data/EC/NIT-9015464037.xlsx
+++ b/Data/EC/NIT-9015464037.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79CD19EB-DA3C-45D8-A558-0A92AFA838C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98779159-E13A-462A-B718-5C7EEEBDF7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B43E4751-B91F-46FF-8185-21ADF78AA95E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0ED0C7C0-F26E-4750-828B-EBFE419030FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,130 +65,130 @@
     <t>CC</t>
   </si>
   <si>
+    <t>3928648</t>
+  </si>
+  <si>
+    <t>ROBINSON PEREZ PADILLA</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>1002276138</t>
+  </si>
+  <si>
+    <t>EDER MANUEL VISBAL VASQUEZ</t>
+  </si>
+  <si>
+    <t>1050947253</t>
+  </si>
+  <si>
+    <t>JESUS DAVID LORDUY DE AVILA</t>
+  </si>
+  <si>
     <t>73101255</t>
   </si>
   <si>
     <t>DAGOBERTO RODRIGUEZ HIDALGO</t>
   </si>
   <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>1050963306</t>
+  </si>
+  <si>
+    <t>YOHENDRYS RAMOS RUIZ</t>
+  </si>
+  <si>
+    <t>1049452952</t>
+  </si>
+  <si>
+    <t>JUAN DAVID BENVIDES ORTEGA</t>
+  </si>
+  <si>
+    <t>73210938</t>
+  </si>
+  <si>
+    <t>ALVARO JAVIER GONZALEZ ARCIRIA</t>
+  </si>
+  <si>
+    <t>14967937</t>
+  </si>
+  <si>
+    <t>OSCAR EVELIO LOAIZA NOGUERA</t>
+  </si>
+  <si>
+    <t>1050955861</t>
+  </si>
+  <si>
+    <t>CARLOS JULIO PAJARO RAMOS</t>
+  </si>
+  <si>
+    <t>1049452060</t>
+  </si>
+  <si>
+    <t>DEIBIS DE JESUS ORTEGA CARMONA</t>
+  </si>
+  <si>
+    <t>1049452446</t>
+  </si>
+  <si>
+    <t>JESUS DAVID ESCOBAR VERGARA</t>
+  </si>
+  <si>
+    <t>3829638</t>
+  </si>
+  <si>
+    <t>DEIVIS JOSE VILLADIEGO DIMAS</t>
+  </si>
+  <si>
+    <t>3928682</t>
+  </si>
+  <si>
+    <t>OMAR ENRIQUE VILLADIEGO DIMAS</t>
+  </si>
+  <si>
+    <t>73556586</t>
+  </si>
+  <si>
+    <t>BARTOLO RUIZ ACEVEDO</t>
+  </si>
+  <si>
+    <t>73558744</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL SIMANCAS SEMPRUN</t>
+  </si>
+  <si>
+    <t>7938370</t>
+  </si>
+  <si>
+    <t>ONIS MARQUEZ OROZCO</t>
+  </si>
+  <si>
+    <t>1035922251</t>
+  </si>
+  <si>
+    <t>DAIRO JOSE PUELLO MARTINEZ</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
     <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>1050963306</t>
-  </si>
-  <si>
-    <t>YOHENDRYS RAMOS RUIZ</t>
-  </si>
-  <si>
-    <t>1049452952</t>
-  </si>
-  <si>
-    <t>JUAN DAVID BENVIDES ORTEGA</t>
-  </si>
-  <si>
-    <t>3928648</t>
-  </si>
-  <si>
-    <t>ROBINSON PEREZ PADILLA</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>73210938</t>
-  </si>
-  <si>
-    <t>ALVARO JAVIER GONZALEZ ARCIRIA</t>
-  </si>
-  <si>
-    <t>14967937</t>
-  </si>
-  <si>
-    <t>OSCAR EVELIO LOAIZA NOGUERA</t>
-  </si>
-  <si>
-    <t>1050955861</t>
-  </si>
-  <si>
-    <t>CARLOS JULIO PAJARO RAMOS</t>
-  </si>
-  <si>
-    <t>1049452060</t>
-  </si>
-  <si>
-    <t>DEIBIS DE JESUS ORTEGA CARMONA</t>
-  </si>
-  <si>
-    <t>1049452446</t>
-  </si>
-  <si>
-    <t>JESUS DAVID ESCOBAR VERGARA</t>
-  </si>
-  <si>
-    <t>3829638</t>
-  </si>
-  <si>
-    <t>DEIVIS JOSE VILLADIEGO DIMAS</t>
-  </si>
-  <si>
-    <t>3928682</t>
-  </si>
-  <si>
-    <t>OMAR ENRIQUE VILLADIEGO DIMAS</t>
-  </si>
-  <si>
-    <t>73556586</t>
-  </si>
-  <si>
-    <t>BARTOLO RUIZ ACEVEDO</t>
-  </si>
-  <si>
-    <t>1002276138</t>
-  </si>
-  <si>
-    <t>EDER MANUEL VISBAL VASQUEZ</t>
-  </si>
-  <si>
-    <t>73558744</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL SIMANCAS SEMPRUN</t>
-  </si>
-  <si>
-    <t>7938370</t>
-  </si>
-  <si>
-    <t>ONIS MARQUEZ OROZCO</t>
-  </si>
-  <si>
-    <t>1050947253</t>
-  </si>
-  <si>
-    <t>JESUS DAVID LORDUY DE AVILA</t>
-  </si>
-  <si>
-    <t>1035922251</t>
-  </si>
-  <si>
-    <t>DAIRO JOSE PUELLO MARTINEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -287,7 +287,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -300,9 +302,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -502,23 +502,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,10 +546,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,7 +602,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C18592A-CBCF-4493-A1A1-6A13DA09EF93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B55F7C13-DFB9-8DE5-2B5C-FE3E1A322EE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -953,7 +953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14482CE7-5B42-4F3A-B2F5-1E291B427810}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E9CFA1-A7A8-4FCF-8960-4CB9CB07804C}">
   <dimension ref="B2:J136"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1131,7 +1131,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
         <v>1160000</v>
@@ -1145,13 +1145,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>46400</v>
@@ -1168,13 +1168,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>46400</v>
@@ -1191,13 +1191,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1214,13 +1214,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1237,13 +1237,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1266,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
@@ -1283,16 +1283,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F23" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
         <v>1160000</v>
@@ -1306,13 +1306,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
@@ -1329,13 +1329,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1352,13 +1352,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1375,13 +1375,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1398,13 +1398,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1421,13 +1421,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1444,16 +1444,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F30" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
         <v>1160000</v>
@@ -1467,13 +1467,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1490,13 +1490,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1513,13 +1513,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1536,13 +1536,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1559,13 +1559,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1582,13 +1582,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="E36" s="16" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1605,16 +1605,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F37" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G37" s="18">
         <v>1160000</v>
@@ -1628,13 +1628,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1651,13 +1651,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1674,13 +1674,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1697,13 +1697,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1720,13 +1720,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F42" s="18">
         <v>46400</v>
@@ -1743,13 +1743,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
@@ -1766,13 +1766,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F44" s="18">
         <v>46400</v>
@@ -1789,16 +1789,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F45" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G45" s="18">
         <v>1160000</v>
@@ -1812,13 +1812,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F46" s="18">
         <v>46400</v>
@@ -1835,13 +1835,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F47" s="18">
         <v>46400</v>
@@ -1858,13 +1858,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
         <v>46400</v>
@@ -1881,13 +1881,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
@@ -1904,13 +1904,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
@@ -1927,13 +1927,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
@@ -1950,16 +1950,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F52" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G52" s="18">
         <v>1160000</v>
@@ -1973,13 +1973,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
@@ -1996,13 +1996,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
@@ -2019,13 +2019,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -2042,13 +2042,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F56" s="18">
         <v>46400</v>
@@ -2071,7 +2071,7 @@
         <v>28</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
@@ -2088,13 +2088,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F58" s="18">
         <v>46400</v>
@@ -2111,16 +2111,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F59" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G59" s="18">
         <v>1160000</v>
@@ -2134,13 +2134,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F60" s="18">
         <v>46400</v>
@@ -2157,13 +2157,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F61" s="18">
         <v>46400</v>
@@ -2180,13 +2180,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F62" s="18">
         <v>46400</v>
@@ -2203,13 +2203,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F63" s="18">
         <v>46400</v>
@@ -2226,13 +2226,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F64" s="18">
         <v>46400</v>
@@ -2249,13 +2249,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F65" s="18">
         <v>46400</v>
@@ -2272,16 +2272,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F66" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G66" s="18">
         <v>1160000</v>
@@ -2295,13 +2295,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F67" s="18">
         <v>46400</v>
@@ -2318,13 +2318,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F68" s="18">
         <v>46400</v>
@@ -2341,13 +2341,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F69" s="18">
         <v>46400</v>
@@ -2364,13 +2364,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F70" s="18">
         <v>46400</v>
@@ -2387,13 +2387,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F71" s="18">
         <v>46400</v>
@@ -2410,13 +2410,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F72" s="18">
         <v>46400</v>
@@ -2433,16 +2433,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F73" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G73" s="18">
         <v>1160000</v>
@@ -2456,13 +2456,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F74" s="18">
         <v>46400</v>
@@ -2479,13 +2479,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F75" s="18">
         <v>46400</v>
@@ -2508,7 +2508,7 @@
         <v>34</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F76" s="18">
         <v>46400</v>
@@ -2525,13 +2525,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F77" s="18">
         <v>46400</v>
@@ -2548,13 +2548,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F78" s="18">
         <v>46400</v>
@@ -2571,13 +2571,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F79" s="18">
         <v>46400</v>
@@ -2594,16 +2594,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F80" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G80" s="18">
         <v>1160000</v>
@@ -2617,13 +2617,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F81" s="18">
         <v>46400</v>
@@ -2640,13 +2640,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F82" s="18">
         <v>46400</v>
@@ -2663,13 +2663,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F83" s="18">
         <v>46400</v>
@@ -2686,13 +2686,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F84" s="18">
         <v>46400</v>
@@ -2709,13 +2709,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F85" s="18">
         <v>46400</v>
@@ -2732,13 +2732,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F86" s="18">
         <v>46400</v>
@@ -2755,16 +2755,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F87" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G87" s="18">
         <v>1160000</v>
@@ -2778,13 +2778,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F88" s="18">
         <v>46400</v>
@@ -2801,13 +2801,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F89" s="18">
         <v>46400</v>
@@ -2824,13 +2824,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F90" s="18">
         <v>46400</v>
@@ -2847,13 +2847,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F91" s="18">
         <v>46400</v>
@@ -2870,13 +2870,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F92" s="18">
         <v>46400</v>
@@ -2893,13 +2893,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F93" s="18">
         <v>46400</v>
@@ -2916,16 +2916,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F94" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G94" s="18">
         <v>1160000</v>
@@ -2939,13 +2939,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F95" s="18">
         <v>46400</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F96" s="18">
         <v>46400</v>
@@ -2985,13 +2985,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F97" s="18">
         <v>46400</v>
@@ -3008,13 +3008,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F98" s="18">
         <v>46400</v>
@@ -3031,13 +3031,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F99" s="18">
         <v>46400</v>
@@ -3054,13 +3054,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F100" s="18">
         <v>46400</v>
@@ -3077,16 +3077,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F101" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G101" s="18">
         <v>1160000</v>
@@ -3100,13 +3100,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F102" s="18">
         <v>46400</v>
@@ -3123,13 +3123,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F103" s="18">
         <v>46400</v>
@@ -3146,13 +3146,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F104" s="18">
         <v>46400</v>
@@ -3169,13 +3169,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F105" s="18">
         <v>46400</v>
@@ -3192,13 +3192,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F106" s="18">
         <v>46400</v>
@@ -3215,13 +3215,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F107" s="18">
         <v>46400</v>
@@ -3238,13 +3238,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F108" s="18">
         <v>46400</v>
@@ -3261,16 +3261,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F109" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G109" s="18">
         <v>1160000</v>
@@ -3284,13 +3284,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F110" s="18">
         <v>46400</v>
@@ -3307,13 +3307,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F111" s="18">
         <v>46400</v>
@@ -3330,13 +3330,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F112" s="18">
         <v>46400</v>
@@ -3353,13 +3353,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F113" s="18">
         <v>46400</v>
@@ -3382,7 +3382,7 @@
         <v>44</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F114" s="18">
         <v>46400</v>
@@ -3399,16 +3399,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F115" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G115" s="18">
         <v>1160000</v>
@@ -3422,13 +3422,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F116" s="18">
         <v>43307</v>
@@ -3445,16 +3445,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F117" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G117" s="18">
         <v>1160000</v>
@@ -3468,16 +3468,16 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F118" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G118" s="18">
         <v>1160000</v>
@@ -3491,16 +3491,16 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F119" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G119" s="18">
         <v>1160000</v>
@@ -3514,16 +3514,16 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F120" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G120" s="18">
         <v>1160000</v>
@@ -3537,16 +3537,16 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F121" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G121" s="18">
         <v>1160000</v>
@@ -3560,16 +3560,16 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F122" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G122" s="18">
         <v>1160000</v>
@@ -3583,19 +3583,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F123" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G123" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3606,13 +3606,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D124" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E124" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F124" s="18">
         <v>43307</v>
@@ -3629,16 +3629,16 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D125" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E125" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E125" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F125" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G125" s="18">
         <v>1160000</v>
@@ -3652,16 +3652,16 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D126" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E126" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F126" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G126" s="18">
         <v>1160000</v>
@@ -3675,16 +3675,16 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D127" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E127" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F127" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G127" s="18">
         <v>1160000</v>
@@ -3698,16 +3698,16 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D128" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E128" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E128" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F128" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G128" s="18">
         <v>1160000</v>
@@ -3721,16 +3721,16 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D129" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E129" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E129" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F129" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G129" s="18">
         <v>1160000</v>
@@ -3744,16 +3744,16 @@
         <v>8</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D130" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E130" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E130" s="22" t="s">
-        <v>17</v>
-      </c>
       <c r="F130" s="24">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G130" s="24">
         <v>1160000</v>
